--- a/fechamento_2021/Casos Fechados 2021.xlsx
+++ b/fechamento_2021/Casos Fechados 2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
   <si>
     <t>Janeiro de 2021</t>
   </si>
@@ -40,13 +40,49 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL ROBOT</t>
+  </si>
+  <si>
+    <t>Fevereiro de 2021</t>
+  </si>
+  <si>
+    <t>Março de 2021</t>
+  </si>
+  <si>
+    <t>Abril de 2021</t>
+  </si>
+  <si>
+    <t>Maio de 2021</t>
+  </si>
+  <si>
+    <t>Junho de 2021</t>
+  </si>
+  <si>
+    <t>Julho de 2021</t>
+  </si>
+  <si>
+    <t>Agosto de 2021</t>
+  </si>
+  <si>
+    <t>Setembro de 2021</t>
+  </si>
+  <si>
+    <t>Outubro de 2021</t>
+  </si>
+  <si>
+    <t>Novembro de 2021</t>
+  </si>
+  <si>
+    <t>Dezembro de 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +113,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -202,11 +298,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,31 +362,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,13 +380,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -578,87 +741,735 @@
     <col min="1" max="1" width="39.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="33" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="13"/>
+      <c r="G4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="18">
         <v>322</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="19">
         <v>1248</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="G5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>322</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>184</v>
+      </c>
+      <c r="C6" s="20">
+        <v>794</v>
+      </c>
+      <c r="D6" s="9">
         <f>SUM(B5:B7)</f>
         <v>2406</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="10"/>
+      <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="H6" s="20">
         <v>184</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="20">
+        <v>794</v>
+      </c>
+      <c r="J6" s="9">
+        <f>SUM(H5:H7)</f>
+        <v>2406</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <v>1900</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="G9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>322</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="G10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>322</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20">
+        <v>184</v>
+      </c>
+      <c r="C11" s="20">
+        <v>794</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM(B10:B12)</f>
+        <v>2406</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="G11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>184</v>
+      </c>
+      <c r="I11" s="20">
+        <v>794</v>
+      </c>
+      <c r="J11" s="9">
+        <f>SUM(H10:H12)</f>
+        <v>2406</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1900</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I12" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="G14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18">
+        <v>322</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="G15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18">
+        <v>322</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20">
+        <v>184</v>
+      </c>
+      <c r="C16" s="20">
+        <v>794</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SUM(B15:B17)</f>
+        <v>2406</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="G16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>184</v>
+      </c>
+      <c r="I16" s="20">
+        <v>794</v>
+      </c>
+      <c r="J16" s="9">
+        <f>SUM(H15:H17)</f>
+        <v>2406</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1900</v>
+      </c>
+      <c r="C17" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="G19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18">
+        <v>322</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="G20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>322</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20">
+        <v>184</v>
+      </c>
+      <c r="C21" s="20">
+        <v>794</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(B20:B22)</f>
+        <v>2406</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="G21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>184</v>
+      </c>
+      <c r="I21" s="20">
+        <v>794</v>
+      </c>
+      <c r="J21" s="9">
+        <f>SUM(H20:H22)</f>
+        <v>2406</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1900</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I22" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="G24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
+        <v>322</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>322</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20">
+        <v>184</v>
+      </c>
+      <c r="C26" s="20">
+        <v>794</v>
+      </c>
+      <c r="D26" s="9">
+        <f>SUM(B25:B27)</f>
+        <v>2406</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="G26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>184</v>
+      </c>
+      <c r="I26" s="20">
+        <v>794</v>
+      </c>
+      <c r="J26" s="9">
+        <f>SUM(H25:H27)</f>
+        <v>2406</v>
+      </c>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1900</v>
+      </c>
+      <c r="C27" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I27" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="G29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="18">
+        <v>322</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="G30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18">
+        <v>322</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1248</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20">
+        <v>184</v>
+      </c>
+      <c r="C31" s="20">
+        <v>794</v>
+      </c>
+      <c r="D31" s="9">
+        <f>SUM(B30:B32)</f>
+        <v>2406</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="G31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>184</v>
+      </c>
+      <c r="I31" s="20">
+        <v>794</v>
+      </c>
+      <c r="J31" s="9">
+        <f>SUM(H30:H32)</f>
+        <v>2406</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1900</v>
+      </c>
+      <c r="C32" s="17">
+        <v>4271</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="G32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1900</v>
+      </c>
+      <c r="I32" s="17">
+        <v>4271</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D5:E7"/>
+  <mergeCells count="37">
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fechamento_2021/Casos Fechados 2021.xlsx
+++ b/fechamento_2021/Casos Fechados 2021.xlsx
@@ -362,39 +362,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,10 +390,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +733,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D11" sqref="D11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -753,690 +753,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="17"/>
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="7">
         <v>322</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="8">
         <v>1248</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="19"/>
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="7">
         <v>322</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="8">
         <v>1248</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="9">
         <v>184</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="9">
         <v>794</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="13">
         <f>SUM(B5:B7)</f>
         <v>2406</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14"/>
+      <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="9">
         <v>184</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="9">
         <v>794</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="13">
         <f>SUM(H5:H7)</f>
         <v>2406</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="6">
         <v>1900</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="6">
         <v>4271</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="6">
         <v>1900</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="6">
         <v>4271</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="17"/>
+      <c r="G9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="7">
+        <v>366</v>
+      </c>
+      <c r="C10" s="8">
+        <v>828</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
         <v>322</v>
       </c>
-      <c r="C10" s="19">
+      <c r="I10" s="8">
         <v>1248</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="J10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="G10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18">
-        <v>322</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1248</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="9">
+        <v>114</v>
+      </c>
+      <c r="C11" s="9">
+        <v>392</v>
+      </c>
+      <c r="D11" s="13">
+        <f>SUM(B10:B12)</f>
+        <v>1165</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
         <v>184</v>
       </c>
-      <c r="C11" s="20">
+      <c r="I11" s="9">
         <v>794</v>
       </c>
-      <c r="D11" s="9">
-        <f>SUM(B10:B12)</f>
-        <v>2406</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="G11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="20">
-        <v>184</v>
-      </c>
-      <c r="I11" s="20">
-        <v>794</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="J11" s="13">
         <f>SUM(H10:H12)</f>
         <v>2406</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="6">
+        <v>685</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2992</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
         <v>1900</v>
       </c>
-      <c r="C12" s="17">
+      <c r="I12" s="6">
         <v>4271</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1900</v>
-      </c>
-      <c r="I12" s="17">
-        <v>4271</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="17"/>
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="7">
         <v>322</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="8">
         <v>1248</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="G15" s="14" t="s">
+      <c r="E15" s="19"/>
+      <c r="G15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="7">
         <v>322</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="8">
         <v>1248</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="9">
         <v>184</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="9">
         <v>794</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="13">
         <f>SUM(B15:B17)</f>
         <v>2406</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="14"/>
+      <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="9">
         <v>184</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="9">
         <v>794</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="13">
         <f>SUM(H15:H17)</f>
         <v>2406</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="6">
         <v>1900</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="6">
         <v>4271</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="G17" s="16" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="6">
         <v>1900</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="6">
         <v>4271</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="G19" s="21" t="s">
+      <c r="E19" s="17"/>
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="7">
         <v>322</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="8">
         <v>1248</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="G20" s="14" t="s">
+      <c r="E20" s="19"/>
+      <c r="G20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="7">
         <v>322</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="8">
         <v>1248</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="9">
         <v>184</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="9">
         <v>794</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="13">
         <f>SUM(B20:B22)</f>
         <v>2406</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="14"/>
+      <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="9">
         <v>184</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="9">
         <v>794</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="13">
         <f>SUM(H20:H22)</f>
         <v>2406</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="6">
         <v>1900</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="6">
         <v>4271</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="G22" s="16" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="G22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="6">
         <v>1900</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="6">
         <v>4271</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="17"/>
+      <c r="G24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="7">
         <v>322</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="8">
         <v>1248</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="G25" s="14" t="s">
+      <c r="E25" s="19"/>
+      <c r="G25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="7">
         <v>322</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="8">
         <v>1248</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="9">
         <v>184</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="9">
         <v>794</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="13">
         <f>SUM(B25:B27)</f>
         <v>2406</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="14"/>
+      <c r="G26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="9">
         <v>184</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="9">
         <v>794</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="13">
         <f>SUM(H25:H27)</f>
         <v>2406</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="6">
         <v>1900</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="6">
         <v>4271</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="G27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="6">
         <v>1900</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="6">
         <v>4271</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="G29" s="21" t="s">
+      <c r="E29" s="17"/>
+      <c r="G29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="7">
         <v>322</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="8">
         <v>1248</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="G30" s="14" t="s">
+      <c r="E30" s="19"/>
+      <c r="G30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="7">
         <v>322</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="8">
         <v>1248</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="25"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="9">
         <v>184</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="9">
         <v>794</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="13">
         <f>SUM(B30:B32)</f>
         <v>2406</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="14"/>
+      <c r="G31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="9">
         <v>184</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="9">
         <v>794</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="13">
         <f>SUM(H30:H32)</f>
         <v>2406</v>
       </c>
-      <c r="K31" s="10"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="6">
         <v>1900</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="6">
         <v>4271</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="G32" s="16" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="G32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="6">
         <v>1900</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="6">
         <v>4271</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E27"/>
     <mergeCell ref="J4:K4"/>
@@ -1453,20 +1460,13 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
